--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H2">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.7370452219566666</v>
+        <v>0.5853099620050001</v>
       </c>
       <c r="R2">
-        <v>6.633406997609999</v>
+        <v>5.267789658045</v>
       </c>
       <c r="S2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="T2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>271.318122</v>
       </c>
       <c r="I3">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J3">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>50.78668266657</v>
       </c>
       <c r="S3">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="T3">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H4">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I4">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J4">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>23.81281939102</v>
+        <v>6.250695098085</v>
       </c>
       <c r="R4">
-        <v>214.31537451918</v>
+        <v>56.256255882765</v>
       </c>
       <c r="S4">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="T4">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H5">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I5">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J5">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.175271860255</v>
+        <v>0.08907701544666667</v>
       </c>
       <c r="R5">
-        <v>1.577446742295</v>
+        <v>0.8016931390200001</v>
       </c>
       <c r="S5">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="T5">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H6">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I6">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J6">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>16.60590650469</v>
+        <v>3.337212048959999</v>
       </c>
       <c r="R6">
-        <v>149.45315854221</v>
+        <v>30.03490844064</v>
       </c>
       <c r="S6">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="T6">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
     </row>
   </sheetData>
